--- a/SWP391-AppDevProject_Backlog Template.xlsx
+++ b/SWP391-AppDevProject_Backlog Template.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="127">
   <si>
     <t>RECORDS OF CHANGES</t>
   </si>
@@ -436,7 +436,7 @@
     <t>HaiBV</t>
   </si>
   <si>
-    <t>Doing</t>
+    <t>Done</t>
   </si>
   <si>
     <t>SonNTT</t>
@@ -466,7 +466,7 @@
     <t>Pending</t>
   </si>
   <si>
-    <t>SonNTT + DoND</t>
+    <t>SonNTT + DucNHM</t>
   </si>
   <si>
     <t>KhangDT</t>
@@ -476,9 +476,6 @@
   </si>
   <si>
     <t>ITERATION 4 BACKLOG</t>
-  </si>
-  <si>
-    <t>SonNTT + DucNHM</t>
   </si>
 </sst>
 </file>
@@ -5309,7 +5306,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" ht="99.0" customHeight="1">
+    <row r="9" ht="99.0" hidden="1" customHeight="1">
       <c r="A9" s="11">
         <v>1.0</v>
       </c>
@@ -5329,7 +5326,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" ht="52.5" hidden="1" customHeight="1">
+    <row r="10" ht="52.5" customHeight="1">
       <c r="A10" s="11">
         <v>2.0</v>
       </c>
@@ -5349,7 +5346,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" ht="48.75" hidden="1" customHeight="1">
+    <row r="11" ht="48.75" customHeight="1">
       <c r="A11" s="11">
         <v>3.0</v>
       </c>
@@ -5369,7 +5366,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" hidden="1">
       <c r="A12" s="11">
         <v>4.0</v>
       </c>
@@ -5389,7 +5386,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" hidden="1">
       <c r="A13" s="11">
         <v>5.0</v>
       </c>
@@ -5409,7 +5406,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" hidden="1">
       <c r="A14" s="11">
         <v>6.0</v>
       </c>
@@ -5429,7 +5426,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" ht="69.0" hidden="1" customHeight="1">
+    <row r="15" ht="69.0" customHeight="1">
       <c r="A15" s="11">
         <v>7.0</v>
       </c>
@@ -5449,7 +5446,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" ht="157.5" hidden="1" customHeight="1">
+    <row r="16" ht="157.5" customHeight="1">
       <c r="A16" s="11">
         <v>8.0</v>
       </c>
@@ -5469,7 +5466,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" hidden="1">
+    <row r="17">
       <c r="A17" s="11">
         <v>9.0</v>
       </c>
@@ -5489,7 +5486,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" ht="76.5" customHeight="1">
+    <row r="18" ht="76.5" hidden="1" customHeight="1">
       <c r="A18" s="11">
         <v>10.0</v>
       </c>
@@ -5509,7 +5506,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" ht="48.0" customHeight="1">
+    <row r="19" ht="48.0" hidden="1" customHeight="1">
       <c r="A19" s="11">
         <v>11.0</v>
       </c>
@@ -5529,7 +5526,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" hidden="1">
       <c r="A20" s="11">
         <v>12.0</v>
       </c>
@@ -5549,7 +5546,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" ht="15.75" customHeight="1">
+    <row r="21" ht="15.75" hidden="1" customHeight="1">
       <c r="A21" s="11">
         <v>13.0</v>
       </c>
@@ -5569,7 +5566,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" ht="15.75" customHeight="1">
+    <row r="22" hidden="1">
       <c r="A22" s="11">
         <v>14.0</v>
       </c>
@@ -5609,7 +5606,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="24" ht="85.5" hidden="1" customHeight="1">
+    <row r="24" ht="85.5" customHeight="1">
       <c r="A24" s="11">
         <v>16.0</v>
       </c>
@@ -5629,7 +5626,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" ht="133.5" hidden="1" customHeight="1">
+    <row r="25" ht="133.5" customHeight="1">
       <c r="A25" s="11">
         <v>17.0</v>
       </c>
@@ -5749,7 +5746,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="31" ht="94.5" hidden="1" customHeight="1">
+    <row r="31" ht="94.5" customHeight="1">
       <c r="A31" s="11">
         <v>23.0</v>
       </c>
@@ -5949,7 +5946,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="41" ht="106.5" hidden="1" customHeight="1">
+    <row r="41" ht="106.5" customHeight="1">
       <c r="A41" s="11">
         <v>33.0</v>
       </c>
@@ -9011,7 +9008,7 @@
   <autoFilter ref="$A$8:$F$44">
     <filterColumn colId="5">
       <filters>
-        <filter val="Iteration 1"/>
+        <filter val="Iteration 2"/>
       </filters>
     </filterColumn>
     <sortState ref="A8:F44">
@@ -12427,7 +12424,7 @@
         <v>60</v>
       </c>
       <c r="F9" s="56" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>122</v>
@@ -12479,7 +12476,7 @@
         <v>120</v>
       </c>
       <c r="F11" s="56" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="G11" s="6" t="s">
         <v>122</v>
@@ -12533,7 +12530,7 @@
         <v>60</v>
       </c>
       <c r="F13" s="56" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="G13" s="6" t="s">
         <v>122</v>
@@ -12559,7 +12556,7 @@
         <v>60</v>
       </c>
       <c r="F14" s="56" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="G14" s="6" t="s">
         <v>122</v>
@@ -12583,7 +12580,7 @@
         <v>120.0</v>
       </c>
       <c r="F15" s="56" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="G15" s="14" t="s">
         <v>122</v>
@@ -15627,8 +15624,8 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="4.86"/>
-    <col customWidth="1" min="2" max="2" width="16.71"/>
-    <col customWidth="1" min="3" max="3" width="10.14"/>
+    <col customWidth="1" min="2" max="2" width="19.14"/>
+    <col customWidth="1" min="3" max="3" width="13.71"/>
     <col customWidth="1" min="4" max="4" width="9.14"/>
     <col customWidth="1" min="5" max="5" width="6.29"/>
     <col customWidth="1" min="6" max="6" width="16.0"/>
@@ -19029,7 +19026,7 @@
         <v>122</v>
       </c>
       <c r="H9" s="60" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10">
@@ -19136,7 +19133,7 @@
       </c>
       <c r="H13" s="13"/>
     </row>
-    <row r="14">
+    <row r="14" ht="20.25" customHeight="1">
       <c r="A14" s="5"/>
       <c r="B14" s="17" t="s">
         <v>89</v>
